--- a/base para diseño 3 factores.xlsx
+++ b/base para diseño 3 factores.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0576b3c131c1b4c7/Documentos No tocar JP/LASA/Pesas/balanzas_github/LASA_VITAMINA_A/LASA_VITAMINAA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{914DAFF9-74F8-4283-8786-8FDD911F3AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{749BE1EA-EEC6-49AC-9C5B-26D2ABA17D4F}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{914DAFF9-74F8-4283-8786-8FDD911F3AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBACB1B6-EE31-4A89-B45B-A69DB4063A1A}"/>
   <bookViews>
-    <workbookView xWindow="14892" yWindow="324" windowWidth="26436" windowHeight="14820" xr2:uid="{54DBEC37-AD30-4340-9299-614DD3A08349}"/>
+    <workbookView xWindow="-23148" yWindow="4164" windowWidth="23256" windowHeight="12456" xr2:uid="{54DBEC37-AD30-4340-9299-614DD3A08349}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId2"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -122,15 +122,31 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -149,11 +165,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -306,7 +317,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F374E3AB-902B-4FB7-9583-140035F5416C}" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F374E3AB-902B-4FB7-9583-140035F5416C}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H3:J7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
@@ -360,11 +371,32 @@
   <dataFields count="1">
     <dataField name="Count of resultado(y)" fld="3" subtotal="count" baseField="1" baseItem="0"/>
   </dataFields>
-  <formats count="3">
+  <formats count="6">
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
     <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="2" count="0"/>
+          <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
@@ -378,7 +410,7 @@
     <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
-          <reference field="1" count="0"/>
+          <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
@@ -710,7 +742,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -760,7 +792,7 @@
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(0,50)</f>
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -775,7 +807,7 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D8" ca="1" si="0">RANDBETWEEN(0,50)</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>5</v>
@@ -796,15 +828,15 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>10</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <v>50</v>
       </c>
     </row>
@@ -820,9 +852,9 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="H5" s="6">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5">
         <v>0.5</v>
       </c>
       <c r="I5" s="3">
@@ -844,9 +876,9 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="H6" s="6">
+        <v>41</v>
+      </c>
+      <c r="H6" s="5">
         <v>1</v>
       </c>
       <c r="I6" s="3">
@@ -868,7 +900,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
@@ -892,7 +924,7 @@
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -907,7 +939,7 @@
       </c>
       <c r="D9">
         <f ca="1">RANDBETWEEN(51,100)</f>
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -922,7 +954,7 @@
       </c>
       <c r="D10">
         <f t="shared" ref="D10:D16" ca="1" si="1">RANDBETWEEN(51,100)</f>
-        <v>93</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -937,7 +969,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -952,7 +984,7 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="1"/>
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -967,7 +999,7 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -982,7 +1014,7 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -997,7 +1029,7 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1012,7 +1044,7 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1027,7 +1059,7 @@
       </c>
       <c r="D17">
         <f ca="1">RANDBETWEEN(51,100)</f>
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
